--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC06C2-2410-B949-A9F6-ED76D37707C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6752E7A0-249A-9C4B-A202-81FCBCECC0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
@@ -51,10 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,7 +188,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,32 +214,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43049</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43050</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43051</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43052</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43055</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
@@ -239,19 +253,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$M$3</c:f>
+              <c:f>Sheet1!$D$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -265,6 +273,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -282,7 +296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Sheet1!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,32 +322,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43049</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43050</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43051</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43052</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43055</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
@@ -341,16 +361,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$M$4</c:f>
+              <c:f>Sheet1!$D$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="10"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -367,6 +381,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -384,7 +404,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$5</c:f>
+              <c:f>Sheet1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -410,32 +430,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43049</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43050</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43051</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43052</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43055</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
@@ -443,16 +469,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$M$5</c:f>
+              <c:f>Sheet1!$D$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="10"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -466,9 +486,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -486,7 +512,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,32 +538,38 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43049</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43050</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43051</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43052</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43053</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43054</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43055</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43056</c:v>
                 </c:pt>
               </c:numCache>
@@ -545,32 +577,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$M$6</c:f>
+              <c:f>Sheet1!$D$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1679,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4373F3-0706-6F4B-8761-8123A90CA41E}">
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1690,9 +1722,15 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
-      <c r="F2" s="1">
+      <c r="D2" s="2">
+        <v>43047</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43048</v>
+      </c>
+      <c r="F2" s="2">
         <v>43049</v>
       </c>
       <c r="G2" s="1">
@@ -1716,9 +1754,12 @@
       <c r="M2" s="1">
         <v>43056</v>
       </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="E3" t="s">
+    <row r="3" spans="1:16">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="F3">
@@ -1746,8 +1787,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="E4" t="s">
+    <row r="4" spans="1:16">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="F4">
@@ -1775,8 +1816,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="E5" t="s">
+    <row r="5" spans="1:16">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="F5">
@@ -1804,8 +1845,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="E6" t="s">
+    <row r="6" spans="1:16">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="F6">
@@ -1833,22 +1874,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6752E7A0-249A-9C4B-A202-81FCBCECC0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770CC51-3567-8644-AF54-037D4685FC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$M$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$3:$M$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$4:$M$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$5:$M$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$4</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>warm</t>
   </si>
@@ -42,9 +58,6 @@
   </si>
   <si>
     <t>ambient</t>
-  </si>
-  <si>
-    <t>pre-treatment</t>
   </si>
 </sst>
 </file>
@@ -180,8 +193,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -192,23 +206,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pre-treatment</c:v>
+                  <c:v>cold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -258,7 +270,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -284,10 +296,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EF5-5444-B2F2-6D0CE045FFB8}"/>
+              <c16:uniqueId val="{00000000-C749-D242-8D92-004600878459}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -300,23 +311,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cold</c:v>
+                  <c:v>ambient</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -366,7 +375,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -384,7 +393,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -392,10 +401,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EF5-5444-B2F2-6D0CE045FFB8}"/>
+              <c16:uniqueId val="{00000001-C749-D242-8D92-004600878459}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -408,23 +416,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ambient</c:v>
+                  <c:v>warm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -477,146 +485,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9EF5-5444-B2F2-6D0CE045FFB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>warm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>43047</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43049</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43050</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43051</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43052</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43053</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43054</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43056</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9EF5-5444-B2F2-6D0CE045FFB8}"/>
+              <c16:uniqueId val="{00000002-C749-D242-8D92-004600878459}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -624,12 +523,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="768743184"/>
-        <c:axId val="768841584"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="735708688"/>
+        <c:axId val="801711792"/>
+      </c:barChart>
       <c:dateAx>
-        <c:axId val="768743184"/>
+        <c:axId val="735708688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,14 +572,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768841584"/>
+        <c:crossAx val="801711792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="768841584"/>
+        <c:axId val="801711792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768743184"/>
+        <c:crossAx val="735708688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,7 +758,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -966,11 +866,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -981,11 +876,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1017,9 +907,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1377,23 +1264,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A08FFEF-8778-A54A-BAA9-947AD811D6CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F24BB7-9F8A-5E48-B07A-CD12EF4C254E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1601,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1760,10 +1647,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1789,10 +1676,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1810,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1818,59 +1705,30 @@
     </row>
     <row r="5" spans="1:16">
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
         <v>3</v>
       </c>
     </row>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B770CC51-3567-8644-AF54-037D4685FC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26921D00-0987-F240-9671-35847E3FF790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
+    <workbookView xWindow="25600" yWindow="1640" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1601,7 +1601,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,29 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26921D00-0987-F240-9671-35847E3FF790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461647D7-00A8-754E-9CF1-A10948959ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="1640" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$2:$M$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$D$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$M$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$3:$M$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$5:$M$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$5</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -100,10 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,64 +120,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of mortalities</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8208184396982673E-2"/>
+          <c:y val="0.116386542591267"/>
+          <c:w val="0.78870619363209649"/>
+          <c:h val="0.7161581961345741"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -228,37 +168,37 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43048</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43049</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43050</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43051</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43052</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43053</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43054</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43055</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43056</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,37 +273,37 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43048</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43049</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43050</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43051</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43052</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43053</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43054</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43055</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43056</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,37 +380,37 @@
             <c:numRef>
               <c:f>Sheet1!$D$2:$M$2</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43048</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43049</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43050</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43051</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43052</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43053</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43054</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43055</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43056</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,14 +468,69 @@
         <c:axId val="735708688"/>
         <c:axId val="801711792"/>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="735708688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -575,9 +570,10 @@
         <c:crossAx val="801711792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="801711792"/>
         <c:scaling>
@@ -599,6 +595,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Number of mortalities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.3618103875949266E-3"/>
+              <c:y val="0.282995943688857"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -644,6 +703,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86950237238115835"/>
+          <c:y val="0.27121665473633977"/>
+          <c:w val="0.13013903552847494"/>
+          <c:h val="0.31363183011214513"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -657,7 +726,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1598,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4373F3-0706-6F4B-8761-8123A90CA41E}">
-  <dimension ref="A2:P14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1609,37 +1678,66 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="D2" s="2">
-        <v>43047</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43048</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>43049</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43050</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43051</v>
-      </c>
-      <c r="I2" s="1">
-        <v>43052</v>
-      </c>
-      <c r="J2" s="1">
-        <v>43053</v>
-      </c>
-      <c r="K2" s="1">
-        <v>43054</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43055</v>
-      </c>
-      <c r="M2" s="1">
-        <v>43056</v>
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3">
+        <v>9</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461647D7-00A8-754E-9CF1-A10948959ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4E882-987E-0442-BFFA-CBF48323CC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="1640" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>warm</t>
+    <t>4 ˚C</t>
   </si>
   <si>
-    <t>cold</t>
+    <t>7.5 ˚C</t>
   </si>
   <si>
-    <t>ambient</t>
+    <t>10 ˚C</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cold</c:v>
+                  <c:v>4 ˚C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -251,7 +251,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ambient</c:v>
+                  <c:v>7.5 ˚C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -356,7 +356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>warm</c:v>
+                  <c:v>10 ˚C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4373F3-0706-6F4B-8761-8123A90CA41E}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4E882-987E-0442-BFFA-CBF48323CC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC960295-2650-6342-A7DF-9008D63BED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
@@ -84,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,10 +167,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -199,16 +200,40 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$M$3</c:f>
+              <c:f>Sheet1!$D$3:$U$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -231,6 +256,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -271,10 +320,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -304,16 +353,40 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$M$4</c:f>
+              <c:f>Sheet1!$D$4:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
@@ -336,6 +409,30 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -378,10 +475,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$M$2</c:f>
+              <c:f>Sheet1!$D$2:$U$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -411,16 +508,40 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$M$5</c:f>
+              <c:f>Sheet1!$D$5:$U$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -444,6 +565,30 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,7 +627,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -495,12 +640,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
                   <a:t>Day</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46974418927971084"/>
+              <c:y val="0.91823196543329033"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -514,7 +667,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -552,7 +705,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -602,7 +755,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -615,7 +768,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
                   <a:t>Number of mortalities</a:t>
                 </a:r>
               </a:p>
@@ -625,8 +778,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.3618103875949266E-3"/>
-              <c:y val="0.282995943688857"/>
+              <c:x val="2.9413177285423598E-3"/>
+              <c:y val="0.28299585462680682"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -642,7 +795,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -674,7 +827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -726,7 +879,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1340,9 +1493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1667,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4373F3-0706-6F4B-8761-8123A90CA41E}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1678,7 +1831,7 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="E1">
         <v>1</v>
       </c>
@@ -1707,7 +1860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="D2" s="2">
         <v>0</v>
@@ -1739,11 +1892,32 @@
       <c r="M2" s="3">
         <v>9</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="4">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>13</v>
+      </c>
+      <c r="R2" s="4">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4">
+        <v>15</v>
+      </c>
+      <c r="T2" s="4">
+        <v>16</v>
+      </c>
+      <c r="U2" s="4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1771,8 +1945,32 @@
       <c r="M3">
         <v>0</v>
       </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -1800,8 +1998,32 @@
       <c r="M4">
         <v>0</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:21">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -1829,23 +2051,47 @@
       <c r="M5">
         <v>3</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:21">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC960295-2650-6342-A7DF-9008D63BED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BDF39-ADEC-1C4B-8BC5-5494CF12275E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="25040" windowHeight="14300" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25540" windowHeight="14740" activeTab="2" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="other fig type" sheetId="2" r:id="rId2"/>
+    <sheet name="kapmeier" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">kapmeier!$W$1:$Y$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'other fig type'!$V$1:$X$63</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>4 ˚C</t>
   </si>
@@ -42,6 +48,45 @@
   </si>
   <si>
     <t>10 ˚C</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>10˚C</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>1-(died/alive)</t>
+  </si>
+  <si>
+    <t>1-(died/ailve)</t>
+  </si>
+  <si>
+    <t>1-died/alive</t>
+  </si>
+  <si>
+    <t>S(t)</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>http://www.real-statistics.com/survival-analysis/kaplan-meier-procedure/real-statistics-kaplan-meier/</t>
+  </si>
+  <si>
+    <t>http://www.real-statistics.com/survival-analysis/kaplan-meier-procedure/kaplan-meier-overview/</t>
+  </si>
+  <si>
+    <t>https://www.statology.org/how-to-create-a-survival-curve-in-excel/</t>
   </si>
 </sst>
 </file>
@@ -460,7 +505,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -939,7 +984,1745 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'other fig type'!$V$2:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'other fig type'!$W$2:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D3F-AF4F-BAF2-C5131618F3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236249647"/>
+        <c:axId val="236251279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236249647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236251279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236251279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236249647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11830212577315236"/>
+          <c:y val="9.5857351789750481E-2"/>
+          <c:w val="0.83745234426125681"/>
+          <c:h val="0.74572114461302097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>decreased (4˚C)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kapmeier!$AA$2:$AA$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kapmeier!$AB$2:$AB$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7DC7-534A-8324-0F877A58C8C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ambient (7.5˚C)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kapmeier!$AC$2:$AC$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kapmeier!$AD$2:$AD$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98305084745762716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94855783526613147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DC7-534A-8324-0F877A58C8C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>elevated (10˚C)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kapmeier!$AE$2:$AE$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kapmeier!$AF$2:$AF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96551724137931039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12458286985539488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12458286985539488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6062291434927691E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6062291434927691E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6168945887587506E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6168945887587506E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.6275600340247328E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7DC7-534A-8324-0F877A58C8C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="113902159"/>
+        <c:axId val="201386111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="113902159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="17"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800" b="1"/>
+                  <a:t>Time (Days)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46759462540372804"/>
+              <c:y val="0.92340163389520025"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201386111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201386111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800" b="1"/>
+                  <a:t>Proportion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800" b="1" baseline="0"/>
+                  <a:t> survival</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.9406150801830397E-3"/>
+              <c:y val="0.29201060702309017"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113902159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67407315414107283"/>
+          <c:y val="0.22816662218070199"/>
+          <c:w val="0.28973378818485385"/>
+          <c:h val="0.17502268784198585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1482,6 +3265,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1503,6 +4318,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F24BB7-9F8A-5E48-B07A-CD12EF4C254E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>113747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>73991</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5177C0B-543D-7E40-9B01-C549BC4F1C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE4CFD-0BB1-4346-8810-572C7344FA8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4373F3-0706-6F4B-8761-8123A90CA41E}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2098,4 +4995,4498 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F21CC33-D5C4-B34A-B9EE-567F14A58D4C}">
+  <dimension ref="B1:X63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F26" si="0">1-(D10/E10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>G9*F10</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L26" si="1">1-(J10/K10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>M9*L10</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R26" si="2">1-(P10/Q10)</f>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f>S9*R10</f>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G26" si="3">G10*F11</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M26" si="4">M10*L11</f>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S26" si="5">S10*R11</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>59</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>58</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>59</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>27</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>0.12458286985539488</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>5.6062291434927691E-2</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>59</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>4.6168945887587506E-2</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>3.6275600340247328E-2</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>57</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>59</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>57</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>-0.33333333333333326</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>57</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>57</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>9</v>
+      </c>
+      <c r="W20">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24">
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>57</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>57</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>57</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>57</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>11</v>
+      </c>
+      <c r="W24">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>57</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O25">
+        <v>16</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>57</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="O26">
+        <v>17</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>12</v>
+      </c>
+      <c r="W26">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="V27">
+        <v>13</v>
+      </c>
+      <c r="W27">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28">
+        <v>13</v>
+      </c>
+      <c r="W28">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>14</v>
+      </c>
+      <c r="W30">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>15</v>
+      </c>
+      <c r="W31">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>15</v>
+      </c>
+      <c r="W32">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>16</v>
+      </c>
+      <c r="W33">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>16</v>
+      </c>
+      <c r="W34">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>17</v>
+      </c>
+      <c r="W35">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="V36">
+        <v>17</v>
+      </c>
+      <c r="W36">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="X36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24">
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E63">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="V1:X63" xr:uid="{BDF46FE6-233E-C941-A1C8-6B36F44E31A6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V2:X63">
+      <sortCondition ref="X1:X63"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C0A5F-3762-C148-9360-EF8EDA4F6CF2}">
+  <dimension ref="A1:AF36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O6" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1">
+        <v>7.5</v>
+      </c>
+      <c r="AF1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="E5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>59</v>
+      </c>
+      <c r="I5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="J5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="O6">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="O7">
+        <v>0.12458286985539488</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>59</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="O8">
+        <v>5.6062291434927691E-2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="O9">
+        <v>4.6168945887587506E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>0.12458286985539488</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>0.12458286985539488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O10">
+        <v>3.6275600340247328E-2</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>0.12458286985539488</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>0.12458286985539488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>0.96491228070175439</v>
+      </c>
+      <c r="J11">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>5.6062291434927691E-2</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>5.6062291434927691E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>-0.33333333333333326</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>5.6062291434927691E-2</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+      <c r="AF12">
+        <v>5.6062291434927691E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>57</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>4.6168945887587506E-2</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE13">
+        <v>6</v>
+      </c>
+      <c r="AF13">
+        <v>4.6168945887587506E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V14">
+        <v>7</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>4.6168945887587506E-2</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
+      <c r="AD14">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE14">
+        <v>6</v>
+      </c>
+      <c r="AF14">
+        <v>4.6168945887587506E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>57</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>3.6275600340247328E-2</v>
+      </c>
+      <c r="Y15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE15">
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="V16">
+        <v>8</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>3.6275600340247328E-2</v>
+      </c>
+      <c r="Y16">
+        <v>8</v>
+      </c>
+      <c r="AA16">
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC16">
+        <v>7</v>
+      </c>
+      <c r="AD16">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AE16">
+        <v>7</v>
+      </c>
+      <c r="AF16">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>8</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC17">
+        <v>8</v>
+      </c>
+      <c r="AD17">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AF17">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V18">
+        <v>9</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC18">
+        <v>8</v>
+      </c>
+      <c r="AD18">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE18">
+        <v>8</v>
+      </c>
+      <c r="AF18">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V19">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="AA19">
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE19">
+        <v>9</v>
+      </c>
+      <c r="AF19">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20">
+        <v>9</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>10</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC20">
+        <v>9</v>
+      </c>
+      <c r="AD20">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE20">
+        <v>9</v>
+      </c>
+      <c r="AF20">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>10</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V22">
+        <v>11</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>11</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
+      <c r="AD22">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE22">
+        <v>10</v>
+      </c>
+      <c r="AF22">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="Q23">
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>11</v>
+      </c>
+      <c r="U23">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V23">
+        <v>11</v>
+      </c>
+      <c r="W23">
+        <v>11</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+      <c r="AA23">
+        <v>11</v>
+      </c>
+      <c r="AB23">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC23">
+        <v>11</v>
+      </c>
+      <c r="AD23">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE23">
+        <v>11</v>
+      </c>
+      <c r="AF23">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V24">
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <v>11</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>12</v>
+      </c>
+      <c r="AA24">
+        <v>11</v>
+      </c>
+      <c r="AB24">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC24">
+        <v>11</v>
+      </c>
+      <c r="AD24">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE24">
+        <v>11</v>
+      </c>
+      <c r="AF24">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+      <c r="R25">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>12</v>
+      </c>
+      <c r="U25">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>12</v>
+      </c>
+      <c r="AA25">
+        <v>12</v>
+      </c>
+      <c r="AB25">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC25">
+        <v>12</v>
+      </c>
+      <c r="AD25">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE25">
+        <v>12</v>
+      </c>
+      <c r="AF25">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26">
+        <v>12</v>
+      </c>
+      <c r="R26">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V26">
+        <v>13</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>13</v>
+      </c>
+      <c r="AA26">
+        <v>12</v>
+      </c>
+      <c r="AB26">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC26">
+        <v>12</v>
+      </c>
+      <c r="AD26">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE26">
+        <v>12</v>
+      </c>
+      <c r="AF26">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="Q27">
+        <v>13</v>
+      </c>
+      <c r="R27">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S27">
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <v>13</v>
+      </c>
+      <c r="U27">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V27">
+        <v>13</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>13</v>
+      </c>
+      <c r="AA27">
+        <v>13</v>
+      </c>
+      <c r="AB27">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC27">
+        <v>13</v>
+      </c>
+      <c r="AD27">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE27">
+        <v>13</v>
+      </c>
+      <c r="AF27">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="Q28">
+        <v>13</v>
+      </c>
+      <c r="R28">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>13</v>
+      </c>
+      <c r="U28">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V28">
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>13</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="AA28">
+        <v>13</v>
+      </c>
+      <c r="AB28">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC28">
+        <v>13</v>
+      </c>
+      <c r="AD28">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE28">
+        <v>13</v>
+      </c>
+      <c r="AF28">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="Q29">
+        <v>14</v>
+      </c>
+      <c r="R29">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S29">
+        <v>14</v>
+      </c>
+      <c r="T29">
+        <v>14</v>
+      </c>
+      <c r="U29">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V29">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>14</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>14</v>
+      </c>
+      <c r="AA29">
+        <v>14</v>
+      </c>
+      <c r="AB29">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC29">
+        <v>14</v>
+      </c>
+      <c r="AD29">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE29">
+        <v>14</v>
+      </c>
+      <c r="AF29">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S30">
+        <v>15</v>
+      </c>
+      <c r="T30">
+        <v>14</v>
+      </c>
+      <c r="U30">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V30">
+        <v>15</v>
+      </c>
+      <c r="W30">
+        <v>14</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>15</v>
+      </c>
+      <c r="AA30">
+        <v>14</v>
+      </c>
+      <c r="AB30">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC30">
+        <v>14</v>
+      </c>
+      <c r="AD30">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE30">
+        <v>14</v>
+      </c>
+      <c r="AF30">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="Q31">
+        <v>15</v>
+      </c>
+      <c r="R31">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>15</v>
+      </c>
+      <c r="U31">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V31">
+        <v>15</v>
+      </c>
+      <c r="W31">
+        <v>15</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>15</v>
+      </c>
+      <c r="AA31">
+        <v>15</v>
+      </c>
+      <c r="AB31">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC31">
+        <v>15</v>
+      </c>
+      <c r="AD31">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE31">
+        <v>15</v>
+      </c>
+      <c r="AF31">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="Q32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
+      <c r="T32">
+        <v>15</v>
+      </c>
+      <c r="U32">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V32">
+        <v>16</v>
+      </c>
+      <c r="W32">
+        <v>15</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>16</v>
+      </c>
+      <c r="AA32">
+        <v>15</v>
+      </c>
+      <c r="AB32">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC32">
+        <v>15</v>
+      </c>
+      <c r="AD32">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE32">
+        <v>15</v>
+      </c>
+      <c r="AF32">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="17:32">
+      <c r="Q33">
+        <v>16</v>
+      </c>
+      <c r="R33">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S33">
+        <v>16</v>
+      </c>
+      <c r="T33">
+        <v>16</v>
+      </c>
+      <c r="U33">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V33">
+        <v>16</v>
+      </c>
+      <c r="W33">
+        <v>16</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>16</v>
+      </c>
+      <c r="AA33">
+        <v>16</v>
+      </c>
+      <c r="AB33">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC33">
+        <v>16</v>
+      </c>
+      <c r="AD33">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE33">
+        <v>16</v>
+      </c>
+      <c r="AF33">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="17:32">
+      <c r="Q34">
+        <v>16</v>
+      </c>
+      <c r="R34">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S34">
+        <v>17</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+      <c r="U34">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V34">
+        <v>17</v>
+      </c>
+      <c r="W34">
+        <v>16</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>17</v>
+      </c>
+      <c r="AA34">
+        <v>16</v>
+      </c>
+      <c r="AB34">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC34">
+        <v>16</v>
+      </c>
+      <c r="AD34">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE34">
+        <v>16</v>
+      </c>
+      <c r="AF34">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:32">
+      <c r="Q35">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S35">
+        <v>17</v>
+      </c>
+      <c r="T35">
+        <v>17</v>
+      </c>
+      <c r="U35">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V35">
+        <v>17</v>
+      </c>
+      <c r="W35">
+        <v>17</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>17</v>
+      </c>
+      <c r="AA35">
+        <v>17</v>
+      </c>
+      <c r="AB35">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC35">
+        <v>17</v>
+      </c>
+      <c r="AD35">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE35">
+        <v>17</v>
+      </c>
+      <c r="AF35">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="17:32">
+      <c r="Q36">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="S36">
+        <v>18</v>
+      </c>
+      <c r="T36">
+        <v>17</v>
+      </c>
+      <c r="U36">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="V36">
+        <v>18</v>
+      </c>
+      <c r="W36">
+        <v>17</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>18</v>
+      </c>
+      <c r="AA36">
+        <v>17</v>
+      </c>
+      <c r="AB36">
+        <v>0.98305084745762716</v>
+      </c>
+      <c r="AC36">
+        <v>17</v>
+      </c>
+      <c r="AD36">
+        <v>0.94855783526613147</v>
+      </c>
+      <c r="AE36">
+        <v>17</v>
+      </c>
+      <c r="AF36">
+        <v>3.6275600340247328E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="W1:Y39" xr:uid="{603A6891-2193-F049-B802-E5B23F2BFA45}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:Y39">
+      <sortCondition ref="Y1:Y39"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analyses/mort_fig.xlsx
+++ b/analyses/mort_fig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-crab/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BDF39-ADEC-1C4B-8BC5-5494CF12275E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71EBF94-3B5B-3D4E-A669-1249344DF687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25540" windowHeight="14740" activeTab="2" xr2:uid="{15B09E9E-3F1B-6E49-A220-729973E3E891}"/>
   </bookViews>
@@ -5001,7 +5001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F21CC33-D5C4-B34A-B9EE-567F14A58D4C}">
   <dimension ref="B1:X63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="E29" sqref="E29:E63"/>
     </sheetView>
   </sheetViews>
@@ -6945,7 +6945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10C0A5F-3762-C148-9360-EF8EDA4F6CF2}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q8" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
